--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/43.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/43.xlsx
@@ -479,13 +479,13 @@
         <v>-19.94980508631523</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.16766803407601</v>
+        <v>-14.16494483508493</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5126187393040346</v>
+        <v>-0.5148967999984949</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.46715482046782</v>
+        <v>-10.46352825258067</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.41350078965077</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.37396344995309</v>
+        <v>-14.37151518932169</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.503990911731337</v>
+        <v>-0.5065700953911572</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.22079695789506</v>
+        <v>-10.21740605145906</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.82435230643547</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.69029967121488</v>
+        <v>-14.68761574913232</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4260262483088583</v>
+        <v>-0.4284090474260525</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.797640637747637</v>
+        <v>-9.793961700649112</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.22890116248764</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.14864810140087</v>
+        <v>-15.14568924095864</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3664562703790047</v>
+        <v>-0.3691925616729255</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.580400056694875</v>
+        <v>-9.576550919659409</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.63403475200704</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.59335435202578</v>
+        <v>-15.59019910704092</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3498683226785378</v>
+        <v>-0.3524736909440413</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.390378373250064</v>
+        <v>-9.386372128580495</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.05435514512919</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.06797651464403</v>
+        <v>-16.06432376215119</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3685903157422061</v>
+        <v>-0.3719812221782131</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.249256440919099</v>
+        <v>-9.245276380855215</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.47971055852306</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.57203017405048</v>
+        <v>-16.56795846786671</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1505772888217836</v>
+        <v>-0.153614703081064</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.046954177408749</v>
+        <v>-9.043000301950546</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.92854255056002</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.19387528212394</v>
+        <v>-17.18925369922082</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04960402162820799</v>
+        <v>0.04616074598083404</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.070428676403962</v>
+        <v>-9.066396247128711</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.3976118781426</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.61560454126163</v>
+        <v>-17.61068183539314</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1745307753439581</v>
+        <v>0.1715195456903612</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.756462161956529</v>
+        <v>-8.752599932618221</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.88168921007086</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.14491325284977</v>
+        <v>-18.13959777789603</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3004001748643125</v>
+        <v>0.2973889452107156</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.679466328944338</v>
+        <v>-8.675460084274771</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.37285011425064</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.66632730582435</v>
+        <v>-18.66088090784219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3820830522938415</v>
+        <v>0.3786790535549927</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.177638361020978</v>
+        <v>-8.173566654837202</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.852565281546</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.42742214692241</v>
+        <v>-19.42171390288342</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5181644480307422</v>
+        <v>0.5145116955379007</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.586795826076723</v>
+        <v>-7.58222661238496</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.32943937166908</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.25251216431083</v>
+        <v>-20.24676464336331</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7578452361542214</v>
+        <v>0.7537735299704446</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.009150332396927</v>
+        <v>-7.003952688168762</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.79883126323734</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.04803976188263</v>
+        <v>-21.04214822560386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8384152678422037</v>
+        <v>0.8341864540243261</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.462062273549719</v>
+        <v>-6.456314752602202</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.25574823225624</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.93652270963069</v>
+        <v>-21.93080137328885</v>
       </c>
       <c r="F16" t="n">
-        <v>1.083830484610359</v>
+        <v>1.079431470855539</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.964070350358985</v>
+        <v>-5.958741783102402</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.69659024470919</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.57616025726606</v>
+        <v>-22.57056984395264</v>
       </c>
       <c r="F17" t="n">
-        <v>1.261021711270279</v>
+        <v>1.256544143698409</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.842259564719566</v>
+        <v>-5.836747705223199</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.11189132103219</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.35689355262671</v>
+        <v>-23.35114603167919</v>
       </c>
       <c r="F18" t="n">
-        <v>1.583275653416525</v>
+        <v>1.578300578336669</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.44422737372541</v>
+        <v>-5.438728606531885</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.51598018088433</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.15569422590894</v>
+        <v>-24.14967176660175</v>
       </c>
       <c r="F19" t="n">
-        <v>1.834333652709464</v>
+        <v>1.829306208418241</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.191375728943155</v>
+        <v>-5.186138807806464</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.915531449303135</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.90732333205243</v>
+        <v>-24.90130087274524</v>
       </c>
       <c r="F20" t="n">
-        <v>2.058473877359814</v>
+        <v>2.053472617674275</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.95423484757097</v>
+        <v>-4.948356403595035</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.317650057534433</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.48656608667892</v>
+        <v>-25.48051744276604</v>
       </c>
       <c r="F21" t="n">
-        <v>2.41387753030131</v>
+        <v>2.409059562855555</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.700047787898859</v>
+        <v>-4.694562113008176</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.730529847246292</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.06312491922285</v>
+        <v>-26.05702390609861</v>
       </c>
       <c r="F22" t="n">
-        <v>2.703453084554607</v>
+        <v>2.699054070799787</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.411990940775201</v>
+        <v>-4.405772096925381</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.156347008319727</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.5639447798274</v>
+        <v>-26.55811870506283</v>
       </c>
       <c r="F23" t="n">
-        <v>2.899994734814599</v>
+        <v>2.895674274876829</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.259387058852043</v>
+        <v>-4.253403876453373</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.614294915423983</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.77948336151074</v>
+        <v>-26.77359182523196</v>
       </c>
       <c r="F24" t="n">
-        <v>3.026544934082723</v>
+        <v>3.022172104933587</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.080140340645971</v>
+        <v>-4.074078604430252</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.117056172005452</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.08389249488371</v>
+        <v>-27.07818425084472</v>
       </c>
       <c r="F25" t="n">
-        <v>3.333402328087099</v>
+        <v>3.329003314332279</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.826005650185226</v>
+        <v>-3.820140298512133</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.674717441302235</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.05180326061864</v>
+        <v>-27.04613429348817</v>
       </c>
       <c r="F26" t="n">
-        <v>3.412794052519326</v>
+        <v>3.407949900467887</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.786021757306595</v>
+        <v>-3.779933836485192</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.295840557947573</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.98141904054152</v>
+        <v>-26.97594645795368</v>
       </c>
       <c r="F27" t="n">
-        <v>3.424027248357527</v>
+        <v>3.419497311574289</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.728886947705302</v>
+        <v>-3.723453642025986</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.98060569234795</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.89510148790602</v>
+        <v>-26.88945870538123</v>
       </c>
       <c r="F28" t="n">
-        <v>3.487603470956948</v>
+        <v>3.483492487864646</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.727472978998396</v>
+        <v>-3.722458627010015</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.738526520143264</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.75070647986462</v>
+        <v>-26.74540409721372</v>
       </c>
       <c r="F29" t="n">
-        <v>3.498470082315581</v>
+        <v>3.494490022251696</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.653462191034119</v>
+        <v>-3.648683500496888</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.57136595471894</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.63512763037786</v>
+        <v>-26.62998235536107</v>
       </c>
       <c r="F30" t="n">
-        <v>3.471290461616158</v>
+        <v>3.467650801426158</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.612980790647501</v>
+        <v>-3.608241377018797</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.475361674659307</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.23103370316799</v>
+        <v>-26.22609790499666</v>
       </c>
       <c r="F31" t="n">
-        <v>3.365714131500479</v>
+        <v>3.362283948155946</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.801261197814364</v>
+        <v>-3.797006199390803</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.444475679855287</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89901290310182</v>
+        <v>-25.89429967407879</v>
       </c>
       <c r="F32" t="n">
-        <v>3.317743933888394</v>
+        <v>3.31452322738933</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.891166041428497</v>
+        <v>-3.886963412216303</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.466218141589859</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.48004611986374</v>
+        <v>-25.47533289084072</v>
       </c>
       <c r="F33" t="n">
-        <v>3.197373301561565</v>
+        <v>3.194204964273867</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.04091580133216</v>
+        <v>-4.037799833255828</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.536407019251624</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.02397575037221</v>
+        <v>-25.01941962898329</v>
       </c>
       <c r="F34" t="n">
-        <v>3.116672346845165</v>
+        <v>3.113739671008619</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.959979185164609</v>
+        <v>-3.957360724596264</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.649861626115358</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.6685982820364</v>
+        <v>-24.66429091440147</v>
       </c>
       <c r="F35" t="n">
-        <v>2.862812594744097</v>
+        <v>2.859827549696183</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.058171456477554</v>
+        <v>-4.056024318811511</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.799385897777377</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.97406470858568</v>
+        <v>-23.96974424864791</v>
       </c>
       <c r="F36" t="n">
-        <v>2.741892085697915</v>
+        <v>2.739378363552304</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.374128000956929</v>
+        <v>-4.372203432439196</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.978585759209778</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.54365525266393</v>
+        <v>-23.53958354648015</v>
       </c>
       <c r="F37" t="n">
-        <v>2.586983958474612</v>
+        <v>2.584365497906267</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.451202387786171</v>
+        <v>-4.449709865262214</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.177312872680369</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.16956888356729</v>
+        <v>-23.16569356192614</v>
       </c>
       <c r="F38" t="n">
-        <v>2.529377825971018</v>
+        <v>2.526811734614039</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.558022486671814</v>
+        <v>-4.556346671908073</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.392803902647382</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.69291741400857</v>
+        <v>-22.68915992309299</v>
       </c>
       <c r="F39" t="n">
-        <v>2.489446302303753</v>
+        <v>2.486827841735407</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.491068449939227</v>
+        <v>-4.489706850443688</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.624860156763696</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.33363843942592</v>
+        <v>-22.33001187153877</v>
       </c>
       <c r="F40" t="n">
-        <v>2.472950000723178</v>
+        <v>2.469807848041164</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.544681430076095</v>
+        <v>-4.54366023045444</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.871674620166555</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.8181421073358</v>
+        <v>-21.81458100096285</v>
       </c>
       <c r="F41" t="n">
-        <v>2.557028769572743</v>
+        <v>2.554227016764613</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.475933747854191</v>
+        <v>-4.474925640535378</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.132243747364656</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.20027705932622</v>
+        <v>-21.19700398361579</v>
       </c>
       <c r="F42" t="n">
-        <v>2.682453030796478</v>
+        <v>2.679782201016767</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.487166943692393</v>
+        <v>-4.48608028255653</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.401666700527237</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.54859459307647</v>
+        <v>-20.54538697888024</v>
       </c>
       <c r="F43" t="n">
-        <v>2.793240097443165</v>
+        <v>2.790543083057769</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.4813015920193</v>
+        <v>-4.479966177129444</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.680571858464108</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.29497050242655</v>
+        <v>-20.29194618047011</v>
       </c>
       <c r="F44" t="n">
-        <v>2.743410792827555</v>
+        <v>2.740923255287627</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.564882853360879</v>
+        <v>-4.563704546105123</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.97336665979071</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.85661401867988</v>
+        <v>-19.85382535817459</v>
       </c>
       <c r="F45" t="n">
-        <v>2.820629194988055</v>
+        <v>2.817905995996977</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.548321090266095</v>
+        <v>-4.547326075250124</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.280992681425126</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.50412994927208</v>
+        <v>-19.50122345804122</v>
       </c>
       <c r="F46" t="n">
-        <v>2.861974687362226</v>
+        <v>2.859303857582514</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.651396790539004</v>
+        <v>-4.651043298362278</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.603936834637636</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.02250340463351</v>
+        <v>-19.01989803636801</v>
       </c>
       <c r="F47" t="n">
-        <v>2.894365044592657</v>
+        <v>2.891825137841362</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962993598172085</v>
+        <v>-4.962849582840826</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.936818276819091</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.56647231205051</v>
+        <v>-18.56397168220774</v>
       </c>
       <c r="F48" t="n">
-        <v>2.860194134175752</v>
+        <v>2.857837519664241</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089373597503267</v>
+        <v>-5.089281951383374</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.277222036962435</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.09636699391265</v>
+        <v>-18.09344741037894</v>
       </c>
       <c r="F49" t="n">
-        <v>2.889049569638916</v>
+        <v>2.886745324338772</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.34205504234858</v>
+        <v>-5.341780103988904</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.627254668087176</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.60900602062939</v>
+        <v>-17.60623045242695</v>
       </c>
       <c r="F50" t="n">
-        <v>2.941130750343302</v>
+        <v>2.93838136674654</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.4327716087389</v>
+        <v>-5.433386946972461</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.9840657762576</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.9189369224477</v>
+        <v>-16.91603043121684</v>
       </c>
       <c r="F51" t="n">
-        <v>2.918821466301001</v>
+        <v>2.915862605858771</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.649671789917775</v>
+        <v>-5.650300220454178</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.34367267917363</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.54307000016458</v>
+        <v>-16.54024206275077</v>
       </c>
       <c r="F52" t="n">
-        <v>2.799707695046977</v>
+        <v>2.797010680661582</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793962059536439</v>
+        <v>-5.793844228810863</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.69633548223678</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11954709553759</v>
+        <v>-16.11654895818683</v>
       </c>
       <c r="F53" t="n">
-        <v>2.868285177331938</v>
+        <v>2.865745270580644</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852746499295788</v>
+        <v>-5.852772683901472</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.03539065155861</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.8441243206562</v>
+        <v>-15.84073341422019</v>
       </c>
       <c r="F54" t="n">
-        <v>2.62542295961792</v>
+        <v>2.623013975895042</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.087085627859843</v>
+        <v>-6.087399843128045</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.36179733996459</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.50672258412207</v>
+        <v>-15.50309601623491</v>
       </c>
       <c r="F55" t="n">
-        <v>2.463916311762387</v>
+        <v>2.461428774222459</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.301026948596489</v>
+        <v>-6.301720840647101</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.67171046728548</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.10015421167511</v>
+        <v>-15.0961348747027</v>
       </c>
       <c r="F56" t="n">
-        <v>2.408981009038504</v>
+        <v>2.406493471498576</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.498000644850258</v>
+        <v>-6.498118475575834</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.96129757756419</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.56000507333402</v>
+        <v>-14.55601192096729</v>
       </c>
       <c r="F57" t="n">
-        <v>2.365043240701672</v>
+        <v>2.362136749470809</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.765005069004419</v>
+        <v>-6.76516217663852</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.22228448574346</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.3100206428741</v>
+        <v>-14.30579182905622</v>
       </c>
       <c r="F58" t="n">
-        <v>2.186804629814413</v>
+        <v>2.183819584766499</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721813561929565</v>
+        <v>-6.721865931140932</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.44992929872114</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.93425845901372</v>
+        <v>-13.9298594452589</v>
       </c>
       <c r="F59" t="n">
-        <v>2.237288549572109</v>
+        <v>2.233910735438943</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.85883760347107</v>
+        <v>-6.859033988013696</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.64993266265267</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.82150754694078</v>
+        <v>-13.81682050252344</v>
       </c>
       <c r="F60" t="n">
-        <v>2.056640954961972</v>
+        <v>2.053263140828807</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821380525040891</v>
+        <v>-6.82136743273805</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.82248321689474</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.49315259167029</v>
+        <v>-13.48854410107</v>
       </c>
       <c r="F61" t="n">
-        <v>1.934987276956654</v>
+        <v>1.931557093612122</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.151201818229655</v>
+        <v>-7.150795956841561</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.9677438809219</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.19170231873954</v>
+        <v>-13.18660941293411</v>
       </c>
       <c r="F62" t="n">
-        <v>1.855883583186945</v>
+        <v>1.852296292208312</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192940079689078</v>
+        <v>-7.193018633506128</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.08146637622889</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.86429000927366</v>
+        <v>-12.8591578265597</v>
       </c>
       <c r="F63" t="n">
-        <v>1.787463208536085</v>
+        <v>1.783902102163135</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.313127419776123</v>
+        <v>-7.312800112205079</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.16131715636862</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.62041968424083</v>
+        <v>-12.61499947086435</v>
       </c>
       <c r="F64" t="n">
-        <v>1.671596328386809</v>
+        <v>1.667878114379759</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.497820535964352</v>
+        <v>-7.498344228078022</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.21603036009556</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.40841602432476</v>
+        <v>-12.40287798022271</v>
       </c>
       <c r="F65" t="n">
-        <v>1.595608602693431</v>
+        <v>1.592754480673934</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730352926736249</v>
+        <v>-7.730300557524882</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.24718604373507</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.17227015796854</v>
+        <v>-12.16662737544376</v>
       </c>
       <c r="F66" t="n">
-        <v>1.526638351323218</v>
+        <v>1.523758044698038</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.851679297170524</v>
+        <v>-7.852019697044409</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.25610345692821</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.9915571018442</v>
+        <v>-11.98587504241089</v>
       </c>
       <c r="F67" t="n">
-        <v>1.576127256064942</v>
+        <v>1.572094826789691</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.815989679623979</v>
+        <v>-7.815740925869987</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.23921631943949</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.90098455078514</v>
+        <v>-11.89509301450636</v>
       </c>
       <c r="F68" t="n">
-        <v>1.438343860958617</v>
+        <v>1.435123154459553</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.829317643916856</v>
+        <v>-7.829644951487899</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.19405588912945</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.75212506747471</v>
+        <v>-11.74618116198457</v>
       </c>
       <c r="F69" t="n">
-        <v>1.326169010210708</v>
+        <v>1.322058027118406</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.901914463174228</v>
+        <v>-7.902254863048112</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.13009630508599</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.65151072013605</v>
+        <v>-11.64517404556065</v>
       </c>
       <c r="F70" t="n">
-        <v>1.373379854257972</v>
+        <v>1.369530717222505</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.843640623225705</v>
+        <v>-7.844138130733691</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.04865051726404</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.38403497307958</v>
+        <v>-11.37788159074397</v>
       </c>
       <c r="F71" t="n">
-        <v>1.311950769324594</v>
+        <v>1.307996893866392</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.699664568875243</v>
+        <v>-7.700908337645207</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.95057172480245</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.32796064000847</v>
+        <v>-11.32187271918707</v>
       </c>
       <c r="F72" t="n">
-        <v>1.363822473183512</v>
+        <v>1.360078074570779</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.702413952472005</v>
+        <v>-7.703343505973768</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.83288783003109</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.30150109596534</v>
+        <v>-11.29687951306221</v>
       </c>
       <c r="F73" t="n">
-        <v>1.337087990780708</v>
+        <v>1.333343592167974</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.586180487843162</v>
+        <v>-7.587882487212586</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.69250455283641</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.49703463890652</v>
+        <v>-11.49239996370055</v>
       </c>
       <c r="F74" t="n">
-        <v>1.384194096405238</v>
+        <v>1.380554436215238</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.472015607063311</v>
+        <v>-7.473390298861691</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.53973707875448</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.6256403297208</v>
+        <v>-11.6209663776063</v>
       </c>
       <c r="F75" t="n">
-        <v>1.316035567811212</v>
+        <v>1.312422092226896</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.341747193788136</v>
+        <v>-7.342820762621157</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.3767605871186</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.96317298928334</v>
+        <v>-11.95890489855693</v>
       </c>
       <c r="F76" t="n">
-        <v>1.341879773620779</v>
+        <v>1.338501959487614</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.146108912424223</v>
+        <v>-7.147954927124907</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.20565627662579</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.57573565464202</v>
+        <v>-12.57166394845824</v>
       </c>
       <c r="F77" t="n">
-        <v>1.315799906360061</v>
+        <v>1.312317353804162</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.974900868162972</v>
+        <v>-6.976157729235777</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.02567498872135</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.10539785840689</v>
+        <v>-13.10152253676574</v>
       </c>
       <c r="F78" t="n">
-        <v>1.343791249835672</v>
+        <v>1.340177774251355</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.838007749649884</v>
+        <v>-6.83850525715787</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.83487980438124</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.60091533636053</v>
+        <v>-13.59706619932507</v>
       </c>
       <c r="F79" t="n">
-        <v>1.403465966188259</v>
+        <v>1.399931044420993</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662793460719064</v>
+        <v>-6.662885106838956</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.64565054189145</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.15909257571468</v>
+        <v>-14.15529580789058</v>
       </c>
       <c r="F80" t="n">
-        <v>1.390373663346533</v>
+        <v>1.387336249087253</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.39599851341037</v>
+        <v>-6.396522205524039</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.46104369965986</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.94343934665965</v>
+        <v>-14.93970804034976</v>
       </c>
       <c r="F81" t="n">
-        <v>1.452823947901566</v>
+        <v>1.449603241402502</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.280458940832137</v>
+        <v>-6.280681509980447</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.28342569787525</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.69763454416012</v>
+        <v>-15.69403416087865</v>
       </c>
       <c r="F82" t="n">
-        <v>1.486130766330917</v>
+        <v>1.483224275100054</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.195398249269443</v>
+        <v>-6.195712464537644</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.11172665204796</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.56634811461717</v>
+        <v>-16.56270845442717</v>
       </c>
       <c r="F83" t="n">
-        <v>1.442350105628185</v>
+        <v>1.439312691368905</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.935463668649814</v>
+        <v>-5.935961176157799</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.94115256076773</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.63703664101353</v>
+        <v>-17.63347553464058</v>
       </c>
       <c r="F84" t="n">
-        <v>1.526585982111851</v>
+        <v>1.523915152332139</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747432015236944</v>
+        <v>-5.747536753659678</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.78076557091729</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44906054016591</v>
+        <v>-18.44556489530716</v>
       </c>
       <c r="F85" t="n">
-        <v>1.518128354476096</v>
+        <v>1.515300417062283</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.539958292104111</v>
+        <v>-5.539709538350118</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.62947882977512</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.53659886031956</v>
+        <v>-19.53278900019262</v>
       </c>
       <c r="F86" t="n">
-        <v>1.513755525326959</v>
+        <v>1.510979957124513</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242815386808296</v>
+        <v>-5.242763017596929</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.48432124352787</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.59594945245499</v>
+        <v>-20.59211340772236</v>
       </c>
       <c r="F87" t="n">
-        <v>1.536693239905663</v>
+        <v>1.534912686719189</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.970731149151545</v>
+        <v>-4.971137010539638</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.33890598707806</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.95826902465079</v>
+        <v>-21.95452462603806</v>
       </c>
       <c r="F88" t="n">
-        <v>1.588826789821417</v>
+        <v>1.586836759789474</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659919879688968</v>
+        <v>-4.659906787386126</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.18224972588432</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.42502589661505</v>
+        <v>-23.42172663629893</v>
       </c>
       <c r="F89" t="n">
-        <v>1.382256435584663</v>
+        <v>1.379899821073152</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.320266267066069</v>
+        <v>-4.320475743911536</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.01679496147808</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.91367309893067</v>
+        <v>-24.91047857703729</v>
       </c>
       <c r="F90" t="n">
-        <v>1.233475506091288</v>
+        <v>1.23144619915082</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.127023877122192</v>
+        <v>-4.126840584882408</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.83550152186762</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.56766299383445</v>
+        <v>-26.56452084115244</v>
       </c>
       <c r="F91" t="n">
-        <v>1.068381567257122</v>
+        <v>1.066561737162122</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.087982630048165</v>
+        <v>-4.088113553076582</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.630544272617286</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.26854951751729</v>
+        <v>-28.26594414925179</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9836350909626291</v>
+        <v>0.9819985531074134</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.842030628863499</v>
+        <v>-3.842279382617491</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.393112911186856</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.16174887764225</v>
+        <v>-30.1593791708279</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8605674442504041</v>
+        <v>0.8590094602122387</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.883795074928605</v>
+        <v>-3.884318767042274</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.111828165690707</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.30302119201223</v>
+        <v>-32.30097879276892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7693010011407317</v>
+        <v>0.7678608478281418</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.921199784147416</v>
+        <v>-3.921932953106553</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.790986875337522</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.39485697085185</v>
+        <v>-34.39312878687674</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3582157842133749</v>
+        <v>0.3567494462951016</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.925009644274359</v>
+        <v>-3.925847551656229</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.426367967121145</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.4131532846295</v>
+        <v>-36.41167385440839</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07790958037201975</v>
+        <v>0.07614211948838673</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.10167717882061</v>
+        <v>-4.102331793962697</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.021855235733463</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54719864783085</v>
+        <v>-38.54594178675805</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.249345621459765</v>
+        <v>-0.2508250516808801</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.187811439216326</v>
+        <v>-4.188911192655031</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.573379619066907</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89185988684705</v>
+        <v>-40.89124454861349</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5123307086415165</v>
+        <v>-0.5140850772223079</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.394368701150238</v>
+        <v>-4.395494639194626</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.091694811493974</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31584738878126</v>
+        <v>-43.31545461969601</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4289851087510884</v>
+        <v>-0.430726385029038</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.71393872121393</v>
+        <v>-4.715025382349793</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.577047061217439</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79969289930785</v>
+        <v>-45.79970599161069</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5740085473288881</v>
+        <v>-0.5751213930704349</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.958280369149064</v>
+        <v>-4.959681245553128</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.063324965825291</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20271962439246</v>
+        <v>-48.20275890130099</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6001145991952899</v>
+        <v>-0.601685675536297</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.315556221396927</v>
+        <v>-5.317376051491926</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.520164052592093</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49421302156841</v>
+        <v>-50.49463197525935</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7242165378320112</v>
+        <v>-0.7256566911446012</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.634681103163999</v>
+        <v>-5.636304548716373</v>
       </c>
     </row>
   </sheetData>
